--- a/etiqueta_generator/data.xlsx
+++ b/etiqueta_generator/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/nvme/workspace/jolg/etiquetas/etiqueta_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4482EF4F-D4CE-0B4D-8DA2-03249B9CDA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939721AF-A1F4-F84F-AFA4-8D8D4AF7875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{31FF99D6-B8C2-6847-9786-4EC179471A8B}"/>
   </bookViews>
@@ -867,6 +867,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
